--- a/web-automation/src/test/resources/CID_TestAutomation_User_Credentials_Data.xlsx
+++ b/web-automation/src/test/resources/CID_TestAutomation_User_Credentials_Data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Data\Git_local\Git_codetest\codetest\web-automation\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="375" windowWidth="10515" windowHeight="6735" activeTab="4"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="109">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -350,15 +345,12 @@
   </si>
   <si>
     <t>cid.testuser9@gmail.com</t>
-  </si>
-  <si>
-    <t>error meessage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,9 +434,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -492,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2564,7 +2553,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,7 +2647,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
